--- a/tissue_virus_load_table.xlsx
+++ b/tissue_virus_load_table.xlsx
@@ -1,32 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scross/Documents/Research/Sebe_galbut/Drosophila/Tissue_virus_load/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scross/Documents/Research/Sebe_galbut/Drosophila/Galbut_virus_paper1/Tissue_virus_load/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B71F090-FC41-7548-8E93-CD40B369F1C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0411DCB8-B6E1-114A-8FEC-3802A9B40644}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12520" yWindow="2600" windowWidth="24260" windowHeight="14520" xr2:uid="{A9FF39C5-0C2C-E44A-82E9-0DABE16ED625}"/>
+    <workbookView xWindow="1340" yWindow="460" windowWidth="24260" windowHeight="14420" activeTab="1" xr2:uid="{A9FF39C5-0C2C-E44A-82E9-0DABE16ED625}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="10">
   <si>
     <t>tissue</t>
   </si>
@@ -46,74 +54,23 @@
     <t>male</t>
   </si>
   <si>
-    <t>testes mean</t>
-  </si>
-  <si>
-    <t>testes sd</t>
-  </si>
-  <si>
-    <t>ovaries mean</t>
-  </si>
-  <si>
-    <t>ovaries sd</t>
-  </si>
-  <si>
-    <t>female mean</t>
-  </si>
-  <si>
-    <t>female sd</t>
-  </si>
-  <si>
-    <t>male mean</t>
-  </si>
-  <si>
-    <t>male sd</t>
-  </si>
-  <si>
-    <t>Testes</t>
-  </si>
-  <si>
-    <t>Body</t>
-  </si>
-  <si>
-    <t>Ovaries</t>
-  </si>
-  <si>
-    <t>57.25 ± 7.92</t>
-  </si>
-  <si>
-    <t>17.92 ± 11.85</t>
-  </si>
-  <si>
-    <t>Tissue</t>
-  </si>
-  <si>
-    <t>Virus Load</t>
-  </si>
-  <si>
-    <t>7.18 ± 3.17</t>
-  </si>
-  <si>
-    <t>5.78 ± 3.19</t>
-  </si>
-  <si>
     <t>ovaries</t>
   </si>
   <si>
     <t>testes</t>
   </si>
   <si>
-    <t>female_body</t>
+    <t>body</t>
   </si>
   <si>
-    <t>male_body</t>
+    <t>midgut</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -122,13 +79,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Helvetica"/>
@@ -143,7 +93,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -151,60 +101,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D28627-C4EA-9746-AB9F-12CE6FB233D6}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -551,7 +454,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>-3.3699999999999992</v>
@@ -566,13 +469,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>-2</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D21" si="0">2^(-C3)</f>
+        <f t="shared" ref="D3:D7" si="0">2^(-C3)</f>
         <v>4</v>
       </c>
     </row>
@@ -581,7 +484,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>-2.8499999999999996</v>
@@ -596,7 +499,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>-5.6300000000000008</v>
@@ -611,7 +514,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>-6.0299999999999976</v>
@@ -626,7 +529,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>-5.8300000000000018</v>
@@ -641,14 +544,14 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>-2.09</v>
+        <v>-3.17</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
-        <v>4.2574807298134392</v>
+        <f t="shared" ref="D8:D33" si="1">2^(-C8)</f>
+        <v>9.0004678775104736</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -656,14 +559,14 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>-1.83</v>
+        <v>-3.879999999999999</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
-        <v>3.5553707246662811</v>
+        <f t="shared" si="1"/>
+        <v>14.723002409997992</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -671,14 +574,14 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>-2.5400000000000009</v>
+        <v>-3.7600000000000016</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
-        <v>5.8158900692812461</v>
+        <f t="shared" si="1"/>
+        <v>13.547924997800449</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -686,14 +589,14 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>-1.8599999999999994</v>
+        <v>-3.0700000000000003</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
-        <v>3.6300766212686417</v>
+        <f t="shared" si="1"/>
+        <v>8.3977334689845371</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -701,14 +604,14 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>-3.4399999999999995</v>
+        <v>-4.5500000000000007</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
-        <v>10.852834619581371</v>
+        <f t="shared" si="1"/>
+        <v>23.425371135130018</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -716,29 +619,29 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C13">
-        <v>-1.4699999999999989</v>
+        <v>-1.5400000000000027</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
-        <v>2.770218936221847</v>
+        <f t="shared" si="1"/>
+        <v>2.9079450346406266</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C14">
-        <v>-3.2600000000000016</v>
+        <v>-4.4999999999999982</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
-        <v>9.5798296369514393</v>
+        <f t="shared" si="1"/>
+        <v>22.62741699796949</v>
       </c>
       <c r="H14" s="1"/>
     </row>
@@ -747,14 +650,14 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C15">
-        <v>-4.2099999999999991</v>
+        <v>-4.24</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
-        <v>18.507010942484587</v>
+        <f t="shared" si="1"/>
+        <v>18.895882582872488</v>
       </c>
       <c r="H15" s="1"/>
     </row>
@@ -763,97 +666,660 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C16">
-        <v>-5.3900000000000006</v>
+        <v>-4.0600000000000005</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
-        <v>41.932588923467634</v>
+        <f t="shared" si="1"/>
+        <v>16.679452173457946</v>
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C17">
-        <v>-3.9499999999999993</v>
+        <v>-3.870000000000001</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
-        <v>15.454981262797521</v>
-      </c>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>14.621303203670415</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C18">
-        <v>-4.2199999999999989</v>
+        <v>-3.0499999999999972</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
-        <v>18.635737383495275</v>
-      </c>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>8.2821193907310047</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C19">
-        <v>-4.0199999999999996</v>
+        <v>-4.7200000000000024</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
-        <v>16.223351676640458</v>
-      </c>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>26.354912552562375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C20">
-        <v>-3.5100000000000016</v>
+        <v>-1.3900000000000006</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
-        <v>11.392401564776586</v>
-      </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>2.6207868077167276</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C21">
-        <v>-1.7300000000000004</v>
+        <v>-1.3800000000000008</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
-        <v>3.3172781832577676</v>
+        <f t="shared" si="1"/>
+        <v>2.6026837108838685</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>-2.1300000000000008</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>4.3771748050429604</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>-1.8200000000000003</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>3.5308119851626203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>-2.1799999999999997</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>4.5315355411831932</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>-0.86999999999999922</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>1.8276629004587999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>-2.3200000000000003</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>4.9933221956064484</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>-3.8800000000000008</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>14.723002409998005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>-5.8199999999999985</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>56.492991762601868</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>-4.08</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>16.912288648982084</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>-4.1900000000000013</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>18.252219453894796</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>-3.6899999999999995</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>12.906268147554016</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>-3.6100000000000012</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>12.21007367168448</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>-2.0300000000000011</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>4.0840485028287761</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>-6.3000000000000007</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ref="D34:D59" si="2">2^(-C34)</f>
+        <v>78.793242454074687</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>-2.1799999999999997</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="2"/>
+        <v>4.5315355411831932</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>-1.9499999999999993</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="2"/>
+        <v>3.8637453156993802</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>-1.4500000000000011</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="2"/>
+        <v>2.7320805135087931</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38">
+        <v>-6.2000000000000011</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="2"/>
+        <v>73.516694719810275</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39">
+        <v>9.2999999999999972</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="2"/>
+        <v>1.5864304616332752E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40">
+        <v>-1.8499999999999979</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="2"/>
+        <v>3.605001850443315</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41">
+        <v>0.47000000000000064</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="2"/>
+        <v>0.72196459776124777</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <v>-5.6</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="2"/>
+        <v>48.502930128332721</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <v>-1.7299999999999986</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="2"/>
+        <v>3.3172781832577631</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44">
+        <v>-1.9299999999999997</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="2"/>
+        <v>3.8105519921757489</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45">
+        <v>-1.3499999999999996</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="2"/>
+        <v>2.5491212546385236</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46">
+        <v>-5.8299999999999983</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="2"/>
+        <v>56.885931594660413</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47">
+        <v>-3.8199999999999985</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="2"/>
+        <v>14.123247940650465</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48">
+        <v>-2.6799999999999997</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="2"/>
+        <v>6.4085590207169751</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49">
+        <v>-6.2099999999999991</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="2"/>
+        <v>74.028043769938321</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50">
+        <v>-2.1700000000000017</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="2"/>
+        <v>4.500233938755243</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51">
+        <v>-1.1900000000000013</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="2"/>
+        <v>2.281527431736849</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52">
+        <v>-2.3299999999999983</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="2"/>
+        <v>5.0280534980873073</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53">
+        <v>-0.29999999999999716</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="2"/>
+        <v>1.2311444133449139</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54">
+        <v>-1.9699999999999989</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="2"/>
+        <v>3.9176811903477042</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55">
+        <v>-0.12000000000000099</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="2"/>
+        <v>1.0867348625260589</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56">
+        <v>-1.370000000000001</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="2"/>
+        <v>2.5847056612749864</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57">
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="2"/>
+        <v>0.52850902028069024</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58">
+        <v>-2.6799999999999997</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="2"/>
+        <v>6.4085590207169751</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59">
+        <v>-0.37000000000000099</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="2"/>
+        <v>1.2923528306374932</v>
       </c>
     </row>
   </sheetData>
@@ -863,160 +1329,97 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB9E335-8E01-964D-A4C0-6054C975B10C}">
-  <dimension ref="A1:C19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64A9583-CFE3-2848-823B-72CE5F061B8F}">
+  <dimension ref="C1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>-2.7399999999999998</v>
-      </c>
-      <c r="C2">
-        <v>7.1829421153288573</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>0.69159236548706859</v>
-      </c>
-      <c r="C3">
-        <v>3.1694979694846923</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>-5.830000000000001</v>
-      </c>
-      <c r="C4">
-        <v>57.250929144425761</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>0.1999999999999984</v>
-      </c>
-      <c r="C5">
-        <v>7.9176604232880816</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>-2.3557142857142859</v>
-      </c>
-      <c r="C6">
-        <v>5.7802430482548957</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>0.75327854836612174</v>
-      </c>
-      <c r="C7">
-        <v>3.1916985279027115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>-3.8614285714285712</v>
-      </c>
-      <c r="C8">
-        <v>17.923335705274262</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <v>1.1019744185087157</v>
-      </c>
-      <c r="C9">
-        <v>11.84810230560343</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+    <row r="1" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>20</v>
-      </c>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>21</v>
-      </c>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>22</v>
-      </c>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C29" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
